--- a/data/RtoExcel.xlsx
+++ b/data/RtoExcel.xlsx
@@ -6,13 +6,47 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="women" r:id="rId3" sheetId="1"/>
+    <sheet name="mtcars" r:id="rId3" sheetId="1"/>
+    <sheet name="women" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>mpg</t>
+  </si>
+  <si>
+    <t>cyl</t>
+  </si>
+  <si>
+    <t>disp</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>drat</t>
+  </si>
+  <si>
+    <t>wt</t>
+  </si>
+  <si>
+    <t>qsec</t>
+  </si>
+  <si>
+    <t>vs</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>gear</t>
+  </si>
+  <si>
+    <t>carb</t>
+  </si>
   <si>
     <t>height</t>
   </si>
@@ -75,6 +109,1174 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G2" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.875</v>
+      </c>
+      <c r="G3" t="n">
+        <v>17.02</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.215</v>
+      </c>
+      <c r="G5" t="n">
+        <v>19.44</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="G6" t="n">
+        <v>17.02</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="G7" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>146.7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="G9" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>140.8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G10" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>167.6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="G11" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>167.6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="G12" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>275.8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="G13" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>275.8</v>
+      </c>
+      <c r="D14" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="G14" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>275.8</v>
+      </c>
+      <c r="D15" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="G15" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>472.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="G16" t="n">
+        <v>17.98</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>215.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5.424</v>
+      </c>
+      <c r="G17" t="n">
+        <v>17.82</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>440.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5.345</v>
+      </c>
+      <c r="G18" t="n">
+        <v>17.42</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="D19" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>19.47</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="D20" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.615</v>
+      </c>
+      <c r="G20" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>71.1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.835</v>
+      </c>
+      <c r="G21" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>120.1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.465</v>
+      </c>
+      <c r="G22" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>318.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="G23" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3.435</v>
+      </c>
+      <c r="G24" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="G25" t="n">
+        <v>15.41</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="B26" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="G26" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.935</v>
+      </c>
+      <c r="G27" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>120.3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G28" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>95.1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.513</v>
+      </c>
+      <c r="G29" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>351.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>264.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="G30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="B31" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="G31" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>301.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>335.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="G32" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="G33" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
